--- a/Mechanics/Bestellungen/Bestellungen_Mechanik.xlsx
+++ b/Mechanics/Bestellungen/Bestellungen_Mechanik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\kers\Mechanics\Bestellungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F06DDB-6999-49EC-8A79-26B0C14CA3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2A9569-2F56-45F0-9489-2ABC32DF6A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Stk</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Summe gesamt</t>
   </si>
   <si>
-    <t>Stefan Amazon</t>
-  </si>
-  <si>
     <t>FixMetall MCI</t>
   </si>
   <si>
@@ -168,13 +165,26 @@
   </si>
   <si>
     <t xml:space="preserve">Summe gesamt: </t>
+  </si>
+  <si>
+    <t>Kleines Fahrrad</t>
+  </si>
+  <si>
+    <t>Großes Fahrrad</t>
+  </si>
+  <si>
+    <t>Stefan Amazon (selbst bezahlt)</t>
+  </si>
+  <si>
+    <t>Fahrräder (selbst bezahlt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
@@ -237,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -247,6 +257,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -527,15 +539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E36"/>
+  <dimension ref="A2:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="192.28515625" bestFit="1" customWidth="1"/>
@@ -543,7 +555,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -758,7 +770,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
@@ -776,21 +788,21 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -802,13 +814,13 @@
         <v>2000</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,13 +831,13 @@
         <v>2000</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,13 +848,13 @@
         <v>1000</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -853,13 +865,13 @@
         <v>1000</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,13 +882,13 @@
         <v>2000</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,13 +899,13 @@
         <v>2000</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -904,21 +916,58 @@
         <v>1000</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="5">
         <v>235.14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="8">
+        <f>SUM(D41:D44)</f>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
